--- a/output/帳票2.xlsx
+++ b/output/帳票2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="22">
   <si>
     <t>company_name</t>
   </si>
@@ -437,7 +437,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O21"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -545,37 +545,37 @@
         <v>20</v>
       </c>
       <c r="D3">
-        <v>122282</v>
+        <v>122518</v>
       </c>
       <c r="E3">
-        <v>15443229</v>
+        <v>15482993</v>
       </c>
       <c r="F3">
-        <v>126.2919235864641</v>
+        <v>126.3732104670334</v>
       </c>
       <c r="G3">
-        <v>26978</v>
+        <v>27042</v>
       </c>
       <c r="H3">
-        <v>0.2206211870921313</v>
+        <v>0.2207185882890677</v>
       </c>
       <c r="I3">
         <v>286</v>
       </c>
       <c r="J3">
-        <v>70699</v>
+        <v>70864</v>
       </c>
       <c r="K3">
-        <v>0.5781635890809768</v>
+        <v>0.5783966437584681</v>
       </c>
       <c r="L3">
         <v>890</v>
       </c>
       <c r="M3">
-        <v>160565</v>
+        <v>161237</v>
       </c>
       <c r="N3">
-        <v>1.313071425066649</v>
+        <v>1.316027032762533</v>
       </c>
       <c r="O3">
         <v>677</v>
@@ -633,43 +633,46 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
       </c>
       <c r="D5">
-        <v>236</v>
+        <v>259803</v>
       </c>
       <c r="E5">
-        <v>39764</v>
+        <v>32411298</v>
       </c>
       <c r="F5">
-        <v>168.4915254237288</v>
+        <v>124.7533631251371</v>
       </c>
       <c r="G5">
-        <v>64</v>
+        <v>38794</v>
       </c>
       <c r="H5">
-        <v>0.2711864406779661</v>
+        <v>0.1493208315531383</v>
       </c>
       <c r="I5">
-        <v>4</v>
+        <v>700</v>
       </c>
       <c r="J5">
-        <v>165</v>
+        <v>128163</v>
       </c>
       <c r="K5">
-        <v>0.6991525423728814</v>
+        <v>0.4933083913580675</v>
       </c>
       <c r="L5">
-        <v>29</v>
+        <v>970</v>
       </c>
       <c r="M5">
-        <v>672</v>
+        <v>231153</v>
       </c>
       <c r="N5">
-        <v>2.847457627118644</v>
+        <v>0.8897241371346751</v>
       </c>
       <c r="O5">
-        <v>78</v>
+        <v>918</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -680,43 +683,43 @@
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6">
-        <v>259803</v>
+        <v>225173</v>
       </c>
       <c r="E6">
-        <v>32411298</v>
+        <v>27912381</v>
       </c>
       <c r="F6">
-        <v>124.7533631251371</v>
+        <v>123.9597154188113</v>
       </c>
       <c r="G6">
-        <v>38794</v>
+        <v>31600</v>
       </c>
       <c r="H6">
-        <v>0.1493208315531383</v>
+        <v>0.1403365412371821</v>
       </c>
       <c r="I6">
-        <v>700</v>
+        <v>286</v>
       </c>
       <c r="J6">
-        <v>128163</v>
+        <v>102876</v>
       </c>
       <c r="K6">
-        <v>0.4933083913580675</v>
+        <v>0.4568753802631754</v>
       </c>
       <c r="L6">
-        <v>970</v>
+        <v>999</v>
       </c>
       <c r="M6">
-        <v>231153</v>
+        <v>188850</v>
       </c>
       <c r="N6">
-        <v>0.8897241371346751</v>
+        <v>0.8386884750836023</v>
       </c>
       <c r="O6">
-        <v>918</v>
+        <v>679</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -727,43 +730,43 @@
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D7">
-        <v>224813</v>
+        <v>246290</v>
       </c>
       <c r="E7">
-        <v>27862168</v>
+        <v>29768556</v>
       </c>
       <c r="F7">
-        <v>123.9348614181564</v>
+        <v>120.867903690771</v>
       </c>
       <c r="G7">
-        <v>31479</v>
+        <v>35152</v>
       </c>
       <c r="H7">
-        <v>0.1400230413721626</v>
+        <v>0.1427260546510211</v>
       </c>
       <c r="I7">
-        <v>286</v>
+        <v>220</v>
       </c>
       <c r="J7">
-        <v>102688</v>
+        <v>123583</v>
       </c>
       <c r="K7">
-        <v>0.4567707383469817</v>
+        <v>0.5017783913272971</v>
       </c>
       <c r="L7">
-        <v>999</v>
+        <v>930</v>
       </c>
       <c r="M7">
-        <v>187916</v>
+        <v>206879</v>
       </c>
       <c r="N7">
-        <v>0.8358769288252903</v>
+        <v>0.8399813228308092</v>
       </c>
       <c r="O7">
-        <v>679</v>
+        <v>863</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -771,46 +774,46 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D8">
-        <v>246290</v>
+        <v>120134</v>
       </c>
       <c r="E8">
-        <v>29768556</v>
+        <v>15157791</v>
       </c>
       <c r="F8">
-        <v>120.867903690771</v>
+        <v>126.1740306657566</v>
       </c>
       <c r="G8">
-        <v>35152</v>
+        <v>12735</v>
       </c>
       <c r="H8">
-        <v>0.1427260546510211</v>
+        <v>0.1060066259343733</v>
       </c>
       <c r="I8">
         <v>220</v>
       </c>
       <c r="J8">
-        <v>123583</v>
+        <v>51594</v>
       </c>
       <c r="K8">
-        <v>0.5017783913272971</v>
+        <v>0.4294704246924268</v>
       </c>
       <c r="L8">
-        <v>930</v>
+        <v>291</v>
       </c>
       <c r="M8">
-        <v>206879</v>
+        <v>90145</v>
       </c>
       <c r="N8">
-        <v>0.8399813228308092</v>
+        <v>0.7503704196980039</v>
       </c>
       <c r="O8">
-        <v>863</v>
+        <v>519</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -818,43 +821,46 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
       </c>
       <c r="D9">
-        <v>360</v>
+        <v>115007</v>
       </c>
       <c r="E9">
-        <v>50213</v>
+        <v>14281019</v>
       </c>
       <c r="F9">
-        <v>139.4805555555556</v>
+        <v>124.17521542167</v>
       </c>
       <c r="G9">
-        <v>121</v>
+        <v>13622</v>
       </c>
       <c r="H9">
-        <v>0.3361111111111111</v>
+        <v>0.1184449642195692</v>
       </c>
       <c r="I9">
-        <v>11</v>
+        <v>286</v>
       </c>
       <c r="J9">
-        <v>188</v>
+        <v>48774</v>
       </c>
       <c r="K9">
-        <v>0.5222222222222223</v>
+        <v>0.4240959245958942</v>
       </c>
       <c r="L9">
-        <v>22</v>
+        <v>500</v>
       </c>
       <c r="M9">
-        <v>934</v>
+        <v>90191</v>
       </c>
       <c r="N9">
-        <v>2.594444444444445</v>
+        <v>0.7842218299755667</v>
       </c>
       <c r="O9">
-        <v>163</v>
+        <v>629</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -865,43 +871,43 @@
         <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D10">
-        <v>589738</v>
+        <v>113381</v>
       </c>
       <c r="E10">
-        <v>74239019</v>
+        <v>14250484</v>
       </c>
       <c r="F10">
-        <v>125.8847471249945</v>
+        <v>125.6867023575379</v>
       </c>
       <c r="G10">
-        <v>64467</v>
+        <v>12891</v>
       </c>
       <c r="H10">
-        <v>0.1093146448083725</v>
+        <v>0.1136962983215883</v>
       </c>
       <c r="I10">
-        <v>286</v>
+        <v>105</v>
       </c>
       <c r="J10">
-        <v>257211</v>
+        <v>51757</v>
       </c>
       <c r="K10">
-        <v>0.4361445251959344</v>
+        <v>0.4564874185269137</v>
       </c>
       <c r="L10">
         <v>907</v>
       </c>
       <c r="M10">
-        <v>448176</v>
+        <v>89657</v>
       </c>
       <c r="N10">
-        <v>0.759957811774042</v>
+        <v>0.7907585927095369</v>
       </c>
       <c r="O10">
-        <v>629</v>
+        <v>903</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -909,46 +915,46 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D11">
-        <v>229969</v>
+        <v>66152</v>
       </c>
       <c r="E11">
-        <v>28542947</v>
+        <v>9120642</v>
       </c>
       <c r="F11">
-        <v>124.1164983106419</v>
+        <v>137.8740174144395</v>
       </c>
       <c r="G11">
-        <v>27219</v>
+        <v>6928</v>
       </c>
       <c r="H11">
-        <v>0.1183594310537507</v>
+        <v>0.1047285040512758</v>
       </c>
       <c r="I11">
-        <v>286</v>
+        <v>165</v>
       </c>
       <c r="J11">
-        <v>97541</v>
+        <v>35221</v>
       </c>
       <c r="K11">
-        <v>0.4241484721853815</v>
+        <v>0.5324253234973999</v>
       </c>
       <c r="L11">
-        <v>500</v>
+        <v>845</v>
       </c>
       <c r="M11">
-        <v>180218</v>
+        <v>54348</v>
       </c>
       <c r="N11">
-        <v>0.7836621457674731</v>
+        <v>0.8215624622082477</v>
       </c>
       <c r="O11">
-        <v>629</v>
+        <v>745</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -956,46 +962,46 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D12">
-        <v>573953</v>
+        <v>60795</v>
       </c>
       <c r="E12">
-        <v>71894910</v>
+        <v>8238141</v>
       </c>
       <c r="F12">
-        <v>125.2627131489861</v>
+        <v>135.5068837897853</v>
       </c>
       <c r="G12">
-        <v>65202</v>
+        <v>6454</v>
       </c>
       <c r="H12">
-        <v>0.1136016363709224</v>
+        <v>0.1061600460564191</v>
       </c>
       <c r="I12">
-        <v>286</v>
+        <v>48</v>
       </c>
       <c r="J12">
-        <v>253524</v>
+        <v>30863</v>
       </c>
       <c r="K12">
-        <v>0.4417156108601227</v>
+        <v>0.5076568796776051</v>
       </c>
       <c r="L12">
-        <v>907</v>
+        <v>885</v>
       </c>
       <c r="M12">
-        <v>450830</v>
+        <v>52819</v>
       </c>
       <c r="N12">
-        <v>0.7854824349728985</v>
+        <v>0.868805000411218</v>
       </c>
       <c r="O12">
-        <v>903</v>
+        <v>896</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -1003,43 +1009,46 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
       </c>
       <c r="D13">
-        <v>214</v>
+        <v>58522</v>
       </c>
       <c r="E13">
-        <v>40150</v>
+        <v>7833003</v>
       </c>
       <c r="F13">
-        <v>187.6168224299065</v>
+        <v>133.8471514985817</v>
       </c>
       <c r="G13">
-        <v>52</v>
+        <v>5223</v>
       </c>
       <c r="H13">
-        <v>0.2429906542056075</v>
+        <v>0.08924848774819726</v>
       </c>
       <c r="I13">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="J13">
-        <v>112</v>
+        <v>25964</v>
       </c>
       <c r="K13">
-        <v>0.5233644859813084</v>
+        <v>0.4436622125012816</v>
       </c>
       <c r="L13">
-        <v>27</v>
+        <v>642</v>
       </c>
       <c r="M13">
-        <v>374</v>
+        <v>41463</v>
       </c>
       <c r="N13">
-        <v>1.747663551401869</v>
+        <v>0.7085027852773316</v>
       </c>
       <c r="O13">
-        <v>78</v>
+        <v>707</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -1047,46 +1056,46 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
         <v>19</v>
       </c>
       <c r="D14">
-        <v>66152</v>
+        <v>161246</v>
       </c>
       <c r="E14">
-        <v>9120642</v>
+        <v>21630424</v>
       </c>
       <c r="F14">
-        <v>137.8740174144395</v>
+        <v>134.1454919811964</v>
       </c>
       <c r="G14">
-        <v>6928</v>
+        <v>102296</v>
       </c>
       <c r="H14">
-        <v>0.1047285040512758</v>
+        <v>0.6344095357404215</v>
       </c>
       <c r="I14">
-        <v>165</v>
+        <v>318</v>
       </c>
       <c r="J14">
-        <v>35221</v>
+        <v>160041</v>
       </c>
       <c r="K14">
-        <v>0.5324253234973999</v>
+        <v>0.992526946404872</v>
       </c>
       <c r="L14">
-        <v>845</v>
+        <v>972</v>
       </c>
       <c r="M14">
-        <v>54348</v>
+        <v>785475</v>
       </c>
       <c r="N14">
-        <v>0.8215624622082477</v>
+        <v>4.871283628741178</v>
       </c>
       <c r="O14">
-        <v>745</v>
+        <v>972</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1094,46 +1103,46 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C15" t="s">
         <v>20</v>
       </c>
       <c r="D15">
-        <v>60679</v>
+        <v>156097</v>
       </c>
       <c r="E15">
-        <v>8215419</v>
+        <v>20985772</v>
       </c>
       <c r="F15">
-        <v>135.3914698660163</v>
+        <v>134.4405850208524</v>
       </c>
       <c r="G15">
-        <v>6417</v>
+        <v>102932</v>
       </c>
       <c r="H15">
-        <v>0.105753225992518</v>
+        <v>0.6594104947564655</v>
       </c>
       <c r="I15">
-        <v>48</v>
+        <v>567</v>
       </c>
       <c r="J15">
-        <v>30681</v>
+        <v>147588</v>
       </c>
       <c r="K15">
-        <v>0.5056279767300055</v>
+        <v>0.9454890228511759</v>
       </c>
       <c r="L15">
-        <v>885</v>
+        <v>931</v>
       </c>
       <c r="M15">
-        <v>52383</v>
+        <v>757598</v>
       </c>
       <c r="N15">
-        <v>0.8632805418678621</v>
+        <v>4.853379629333043</v>
       </c>
       <c r="O15">
-        <v>896</v>
+        <v>999</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1141,275 +1150,46 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C16" t="s">
         <v>21</v>
       </c>
       <c r="D16">
-        <v>58522</v>
+        <v>161651</v>
       </c>
       <c r="E16">
-        <v>7833003</v>
+        <v>22016619</v>
       </c>
       <c r="F16">
-        <v>133.8471514985817</v>
+        <v>136.1984707796426</v>
       </c>
       <c r="G16">
-        <v>5223</v>
+        <v>101844</v>
       </c>
       <c r="H16">
-        <v>0.08924848774819726</v>
+        <v>0.6300239404643336</v>
       </c>
       <c r="I16">
-        <v>48</v>
+        <v>350</v>
       </c>
       <c r="J16">
-        <v>25964</v>
+        <v>155607</v>
       </c>
       <c r="K16">
-        <v>0.4436622125012816</v>
+        <v>0.9626108097073325</v>
       </c>
       <c r="L16">
-        <v>642</v>
+        <v>969</v>
       </c>
       <c r="M16">
-        <v>41463</v>
+        <v>787095</v>
       </c>
       <c r="N16">
-        <v>0.7085027852773316</v>
+        <v>4.869100716976697</v>
       </c>
       <c r="O16">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17">
-        <v>116</v>
-      </c>
-      <c r="E17">
-        <v>22722</v>
-      </c>
-      <c r="F17">
-        <v>195.8793103448276</v>
-      </c>
-      <c r="G17">
-        <v>37</v>
-      </c>
-      <c r="H17">
-        <v>0.3189655172413793</v>
-      </c>
-      <c r="I17">
-        <v>4</v>
-      </c>
-      <c r="J17">
-        <v>182</v>
-      </c>
-      <c r="K17">
-        <v>1.568965517241379</v>
-      </c>
-      <c r="L17">
-        <v>78</v>
-      </c>
-      <c r="M17">
-        <v>436</v>
-      </c>
-      <c r="N17">
-        <v>3.758620689655173</v>
-      </c>
-      <c r="O17">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18">
-        <v>161246</v>
-      </c>
-      <c r="E18">
-        <v>21630424</v>
-      </c>
-      <c r="F18">
-        <v>134.1454919811964</v>
-      </c>
-      <c r="G18">
-        <v>102296</v>
-      </c>
-      <c r="H18">
-        <v>0.6344095357404215</v>
-      </c>
-      <c r="I18">
-        <v>318</v>
-      </c>
-      <c r="J18">
-        <v>160041</v>
-      </c>
-      <c r="K18">
-        <v>0.992526946404872</v>
-      </c>
-      <c r="L18">
-        <v>972</v>
-      </c>
-      <c r="M18">
-        <v>785475</v>
-      </c>
-      <c r="N18">
-        <v>4.871283628741178</v>
-      </c>
-      <c r="O18">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19">
-        <v>155476</v>
-      </c>
-      <c r="E19">
-        <v>20892295</v>
-      </c>
-      <c r="F19">
-        <v>134.3763346111297</v>
-      </c>
-      <c r="G19">
-        <v>102388</v>
-      </c>
-      <c r="H19">
-        <v>0.6585453703465487</v>
-      </c>
-      <c r="I19">
-        <v>567</v>
-      </c>
-      <c r="J19">
-        <v>147064</v>
-      </c>
-      <c r="K19">
-        <v>0.9458951863953279</v>
-      </c>
-      <c r="L19">
-        <v>931</v>
-      </c>
-      <c r="M19">
-        <v>752946</v>
-      </c>
-      <c r="N19">
-        <v>4.842843911600505</v>
-      </c>
-      <c r="O19">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20">
-        <v>161651</v>
-      </c>
-      <c r="E20">
-        <v>22016619</v>
-      </c>
-      <c r="F20">
-        <v>136.1984707796426</v>
-      </c>
-      <c r="G20">
-        <v>101844</v>
-      </c>
-      <c r="H20">
-        <v>0.6300239404643336</v>
-      </c>
-      <c r="I20">
-        <v>350</v>
-      </c>
-      <c r="J20">
-        <v>155607</v>
-      </c>
-      <c r="K20">
-        <v>0.9626108097073325</v>
-      </c>
-      <c r="L20">
-        <v>969</v>
-      </c>
-      <c r="M20">
-        <v>787095</v>
-      </c>
-      <c r="N20">
-        <v>4.869100716976697</v>
-      </c>
-      <c r="O20">
         <v>987</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21">
-        <v>621</v>
-      </c>
-      <c r="E21">
-        <v>93477</v>
-      </c>
-      <c r="F21">
-        <v>150.5265700483092</v>
-      </c>
-      <c r="G21">
-        <v>544</v>
-      </c>
-      <c r="H21">
-        <v>0.8760064412238325</v>
-      </c>
-      <c r="I21">
-        <v>43</v>
-      </c>
-      <c r="J21">
-        <v>524</v>
-      </c>
-      <c r="K21">
-        <v>0.8438003220611916</v>
-      </c>
-      <c r="L21">
-        <v>66</v>
-      </c>
-      <c r="M21">
-        <v>4652</v>
-      </c>
-      <c r="N21">
-        <v>7.491143317230274</v>
-      </c>
-      <c r="O21">
-        <v>460</v>
       </c>
     </row>
   </sheetData>
